--- a/Mapeamento das Tabelas.xlsx
+++ b/Mapeamento das Tabelas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9dffe1bd10fb67da/Documentos/GitHub/bootcamp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="8_{1A184CF2-F043-4673-9409-31FE8E38188E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF729E28-4D55-48A5-A204-86B66734E9AF}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{1A184CF2-F043-4673-9409-31FE8E38188E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E0295F3-0842-494E-BE47-E98A3B058094}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="13920" xr2:uid="{31D3C554-32B0-4D3D-87E4-AE2D72F91166}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31D3C554-32B0-4D3D-87E4-AE2D72F91166}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
   <si>
     <t>assistance_area</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>serial</t>
+  </si>
+  <si>
+    <t>rate</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -450,6 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99421676-EE9F-4B65-A8D4-2FFE814F8144}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1125,7 @@
       <c r="M17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="24" t="s">
         <v>60</v>
       </c>
       <c r="Q17" s="5" t="s">
@@ -1259,6 +1263,11 @@
       </c>
       <c r="O25" s="22" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O26" s="24" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
